--- a/test/output/網路壽命比較.xlsx
+++ b/test/output/網路壽命比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DA77D-3344-45D7-89E3-5DBAE8EE2ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6851EC07-0204-44F1-82DB-DEAAA4EC8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3540" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>special 1400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my(1-2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my(1-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my(1-3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -109,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1232,7 +1249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>my(1-1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1240,7 +1257,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="6600FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1253,7 +1270,7 @@
               <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="6600FF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1297,25 +1314,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30318</c:v>
+                  <c:v>28139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29508</c:v>
+                  <c:v>28332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27367</c:v>
+                  <c:v>28423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26972.5</c:v>
+                  <c:v>28641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26810</c:v>
+                  <c:v>28789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26982.5</c:v>
+                  <c:v>28940.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26154</c:v>
+                  <c:v>29214.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,6 +1341,233 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CDC-4F44-A6C2-A1B875102652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27934.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28189.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28656.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-952A-444C-B59B-EB687E21C3E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27606.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26972.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26982.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-952A-444C-B59B-EB687E21C3E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,6 +1708,7 @@
         <c:axId val="350822864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1585,7 +1830,7 @@
           <c:x val="0.77428868798141337"/>
           <c:y val="0.36067997692238929"/>
           <c:w val="0.22309179608862956"/>
-          <c:h val="0.27863972111845153"/>
+          <c:h val="0.41756177776565462"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1679,16 +1924,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$14</c:f>
+              <c:f>工作表1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-1)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="6600FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1699,11 +1947,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="6600FF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="6600FF"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1712,7 +1960,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1742,10 +1990,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28940.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29214.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1761,16 +2030,21 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$15</c:f>
+              <c:f>工作表1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-2)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1781,11 +2055,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1794,7 +2072,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1824,10 +2102,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27934.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28189.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28656.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1843,16 +2142,22 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$16</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my(1-3)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1863,11 +2168,17 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1876,7 +2187,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1906,10 +2217,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27606.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26972.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26982.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3926,14 +4258,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>201491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3962,14 +4294,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>201490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3996,16 +4328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317621</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>182442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4354,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4614,61 +4946,190 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>30318</v>
+        <v>28139</v>
       </c>
       <c r="D11">
-        <v>29508</v>
+        <v>28332</v>
       </c>
       <c r="E11">
-        <v>27367</v>
+        <v>28423</v>
       </c>
       <c r="F11">
-        <v>26972.5</v>
+        <v>28641</v>
       </c>
       <c r="G11">
-        <v>26810</v>
+        <v>28789</v>
       </c>
       <c r="H11">
-        <v>26982.5</v>
+        <v>28940.5</v>
       </c>
       <c r="I11">
-        <v>26154</v>
+        <v>29214.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>27512</v>
+      </c>
+      <c r="D12">
+        <v>27590</v>
+      </c>
+      <c r="E12">
+        <v>27484</v>
+      </c>
+      <c r="F12">
+        <v>27934.5</v>
+      </c>
+      <c r="G12">
+        <v>27984</v>
+      </c>
+      <c r="H12">
+        <v>28189.5</v>
+      </c>
+      <c r="I12">
+        <v>28656.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>400</v>
-      </c>
-      <c r="D13" s="1">
-        <v>500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>700</v>
-      </c>
-      <c r="G13" s="1">
-        <v>800</v>
-      </c>
-      <c r="H13" s="1">
-        <v>900</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1000</v>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>27606.5</v>
+      </c>
+      <c r="D13">
+        <v>27265</v>
+      </c>
+      <c r="E13">
+        <v>27367</v>
+      </c>
+      <c r="F13">
+        <v>26972.5</v>
+      </c>
+      <c r="G13">
+        <v>26810</v>
+      </c>
+      <c r="H13">
+        <v>26982.5</v>
+      </c>
+      <c r="I13">
+        <v>26154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>600</v>
+      </c>
+      <c r="F14" s="1">
+        <v>700</v>
+      </c>
+      <c r="G14" s="1">
+        <v>800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>900</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>28139</v>
+      </c>
+      <c r="D15">
+        <v>28332</v>
+      </c>
+      <c r="E15">
+        <v>28423</v>
+      </c>
+      <c r="F15">
+        <v>28641</v>
+      </c>
+      <c r="G15">
+        <v>28789</v>
+      </c>
+      <c r="H15">
+        <v>28940.5</v>
+      </c>
+      <c r="I15">
+        <v>29214.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>27512</v>
+      </c>
+      <c r="D16">
+        <v>27590</v>
+      </c>
+      <c r="E16">
+        <v>27484</v>
+      </c>
+      <c r="F16">
+        <v>27934.5</v>
+      </c>
+      <c r="G16">
+        <v>27984</v>
+      </c>
+      <c r="H16">
+        <v>28189.5</v>
+      </c>
+      <c r="I16">
+        <v>28656.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>27606.5</v>
+      </c>
+      <c r="D17">
+        <v>27265</v>
+      </c>
+      <c r="E17">
+        <v>27367</v>
+      </c>
+      <c r="F17">
+        <v>26972.5</v>
+      </c>
+      <c r="G17">
+        <v>26810</v>
+      </c>
+      <c r="H17">
+        <v>26982.5</v>
+      </c>
+      <c r="I17">
+        <v>26154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
